--- a/taskSrc/Остатки ЛДСП.xlsx
+++ b/taskSrc/Остатки ЛДСП.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\lamarty_ldsp\taskSrc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C22E1E-5463-4383-9C39-DA1614435136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EF5137-4449-410C-9AD6-B7E74D2F72F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="2595" windowWidth="21600" windowHeight="11340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="366">
   <si>
     <t>элит баттл рок D*</t>
   </si>
@@ -1235,7 +1235,18 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1832,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861EC7B0-8CF4-4038-8525-36FC4FFBDEF5}">
-  <dimension ref="A2:A306"/>
+  <dimension ref="A2:L306"/>
   <sheetViews>
-    <sheetView topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="E295" sqref="E295"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="N212" sqref="N212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,82 +3209,97 @@
         <v>214</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L280" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L281" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L282" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L283" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L284" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
         <v>228</v>
       </c>
@@ -3369,6 +3395,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L280:L284">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3377,7 +3406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F1E3AA-FB08-4BF4-A626-49EE940281BE}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
